--- a/Reports/SKI_CTV.xlsx
+++ b/Reports/SKI_CTV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCE2CF2-308A-44E3-ADF2-03AE5826A52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEEBAF0-A2BD-4EE9-8124-D652CE729561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14205" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="14" r:id="rId1"/>
@@ -895,42 +895,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -963,25 +960,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -993,26 +1131,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1023,14 +1149,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1038,9 +1206,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,184 +1239,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1270,9 +1261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1310,9 +1301,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1345,26 +1336,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1397,26 +1371,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1592,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7477C688-F690-4F53-A182-C41AD585F5D0}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,1098 +1568,1024 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103" t="str">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47" t="str">
         <f>IF(M5="","",M5)</f>
         <v/>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="104"/>
-      <c r="N1" s="103" t="str">
+      <c r="M1" s="48"/>
+      <c r="N1" s="47" t="str">
         <f>IF(D7="","",D7)</f>
         <v/>
       </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
-      <c r="J4" s="111" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="J4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="113"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="106"/>
-      <c r="J5" s="77" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50"/>
+      <c r="J5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="80"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="106"/>
-      <c r="J6" s="77" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="50"/>
+      <c r="J6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="80"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="106"/>
-      <c r="J7" s="77" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50"/>
+      <c r="J7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78" t="s">
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="80"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="J8" s="105" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="J8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="80"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="80"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84" t="s">
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="86"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="J13" s="81" t="s">
+      <c r="J13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="93" t="s">
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="J15" s="88" t="s">
+      <c r="J15" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="20" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="115"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="115"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
     </row>
     <row r="27" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
     </row>
     <row r="28" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="13"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="11"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
     </row>
     <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="13"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="11"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
     </row>
     <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
     </row>
     <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
     </row>
     <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
     </row>
     <row r="33" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="73"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
     </row>
     <row r="34" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="11"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="80"/>
     </row>
     <row r="35" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="11"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="80"/>
     </row>
     <row r="36" spans="1:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="11"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="11"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
     </row>
     <row r="39" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
     </row>
     <row r="40" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
     </row>
     <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
     </row>
     <row r="43" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="14"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="12"/>
     </row>
     <row r="45" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="14"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="12"/>
     </row>
     <row r="46" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="14"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="14"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="12"/>
     </row>
     <row r="48" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="14"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="101"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="12"/>
     </row>
     <row r="49" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="14"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="12"/>
     </row>
     <row r="50" spans="2:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="14"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="12"/>
     </row>
     <row r="51" spans="2:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="14"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="12"/>
     </row>
     <row r="52" spans="2:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="14"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="12"/>
     </row>
     <row r="53" spans="2:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="14"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="12"/>
     </row>
     <row r="54" spans="2:16" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="14"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="101"/>
+      <c r="M54" s="101"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="101"/>
+      <c r="P54" s="12"/>
     </row>
     <row r="55" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="14"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="12"/>
     </row>
     <row r="56" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
     </row>
     <row r="57" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
     </row>
     <row r="58" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
     </row>
     <row r="59" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
     </row>
     <row r="60" spans="2:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
     </row>
     <row r="61" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="96" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="97"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
     </row>
     <row r="62" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="99"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
       <c r="K62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
+      <c r="L62" s="89"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
       <c r="K63" s="6"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -2711,16 +2594,16 @@
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="2:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
       <c r="K64" s="6"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
@@ -2729,16 +2612,16 @@
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
       <c r="K65" s="6"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -2746,18 +2629,18 @@
       <c r="O65" s="7"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
       <c r="J66" s="4"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -2766,18 +2649,18 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
       <c r="J67" s="4"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
@@ -2786,18 +2669,18 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
     </row>
-    <row r="68" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
       <c r="J68" s="4"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -2806,7 +2689,7 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
     </row>
-    <row r="69" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2824,65 +2707,65 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
     </row>
-    <row r="70" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-    </row>
-    <row r="71" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="113"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="115"/>
+      <c r="K70" s="111"/>
+      <c r="L70" s="116"/>
+      <c r="M70" s="116"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="116"/>
+      <c r="P70" s="116"/>
+    </row>
+    <row r="71" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="57"/>
-      <c r="O71" s="57"/>
-      <c r="P71" s="58"/>
-    </row>
-    <row r="72" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="113"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="115"/>
+      <c r="K71" s="109"/>
+      <c r="L71" s="110"/>
+      <c r="M71" s="110"/>
+      <c r="N71" s="110"/>
+      <c r="O71" s="110"/>
+      <c r="P71" s="111"/>
+    </row>
+    <row r="72" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="57"/>
-      <c r="O72" s="57"/>
-      <c r="P72" s="58"/>
-    </row>
-    <row r="73" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="106"/>
+      <c r="C72" s="107"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="110"/>
+      <c r="M72" s="110"/>
+      <c r="N72" s="110"/>
+      <c r="O72" s="110"/>
+      <c r="P72" s="111"/>
+    </row>
+    <row r="73" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2900,7 +2783,7 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
     </row>
-    <row r="74" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2918,16 +2801,16 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
     </row>
-    <row r="75" spans="1:16" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -2941,78 +2824,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="90">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="H24:O25"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="H36:O37"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="Q26:U27"/>
-    <mergeCell ref="R28:U29"/>
-    <mergeCell ref="B32:G33"/>
-    <mergeCell ref="A20:Q22"/>
-    <mergeCell ref="H30:O31"/>
-    <mergeCell ref="H28:O29"/>
-    <mergeCell ref="H26:O27"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="B28:G29"/>
-    <mergeCell ref="B30:G31"/>
-    <mergeCell ref="H50:O51"/>
-    <mergeCell ref="A38:P40"/>
-    <mergeCell ref="B44:G45"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="Q30:U31"/>
-    <mergeCell ref="Q32:U33"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B34:G35"/>
-    <mergeCell ref="H34:O35"/>
-    <mergeCell ref="H32:O33"/>
-    <mergeCell ref="B54:G55"/>
-    <mergeCell ref="H54:O55"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B46:G47"/>
     <mergeCell ref="H46:O47"/>
@@ -3029,8 +2840,80 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="D71:J71"/>
     <mergeCell ref="K71:P71"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B34:G35"/>
+    <mergeCell ref="H34:O35"/>
+    <mergeCell ref="H32:O33"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="H54:O55"/>
     <mergeCell ref="B50:G51"/>
     <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H50:O51"/>
+    <mergeCell ref="A38:P40"/>
+    <mergeCell ref="B44:G45"/>
+    <mergeCell ref="H44:O45"/>
+    <mergeCell ref="Q30:U31"/>
+    <mergeCell ref="Q32:U33"/>
+    <mergeCell ref="Q26:U27"/>
+    <mergeCell ref="R28:U29"/>
+    <mergeCell ref="B32:G33"/>
+    <mergeCell ref="A20:Q22"/>
+    <mergeCell ref="H30:O31"/>
+    <mergeCell ref="H28:O29"/>
+    <mergeCell ref="H26:O27"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="B28:G29"/>
+    <mergeCell ref="B30:G31"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="H24:O25"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="H36:O37"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H44:O47" xr:uid="{ED10FE7F-DA42-42C8-83A9-44D12E3C1776}">
@@ -3055,192 +2938,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3261,118 +3143,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27" style="9" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="100.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" s="22" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" s="19" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
